--- a/experiment_results/Employees_AdventureWorks.xlsx
+++ b/experiment_results/Employees_AdventureWorks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="22780" windowHeight="16480" tabRatio="500" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="22780" windowHeight="16480" tabRatio="500" firstSheet="12" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees_Simple" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="AdventureworksHM" sheetId="26" r:id="rId14"/>
     <sheet name="Employees_JOIN_SFL" sheetId="27" r:id="rId15"/>
     <sheet name="AdvertureworksDuration" sheetId="15" r:id="rId16"/>
+    <sheet name="Adventureworks_JOIN_SFL" sheetId="28" r:id="rId17"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="275">
   <si>
     <t>Nodes</t>
   </si>
@@ -819,6 +820,54 @@
   </si>
   <si>
     <t>STD</t>
+  </si>
+  <si>
+    <t>harmonic_mean</t>
+  </si>
+  <si>
+    <t>jaccard</t>
+  </si>
+  <si>
+    <t>column_cnt</t>
+  </si>
+  <si>
+    <t>total_test_cnt</t>
+  </si>
+  <si>
+    <t>adventureworks_js1</t>
+  </si>
+  <si>
+    <t>adventureworks_jc5</t>
+  </si>
+  <si>
+    <t>adventureworks_jc4</t>
+  </si>
+  <si>
+    <t>adventureworks_jc3</t>
+  </si>
+  <si>
+    <t>adventureworks_jm1</t>
+  </si>
+  <si>
+    <t>adventureworks_jc2</t>
+  </si>
+  <si>
+    <t>adventureworks_jc1</t>
+  </si>
+  <si>
+    <t>adventureworks_jm2</t>
+  </si>
+  <si>
+    <t>adventureworks_js4</t>
+  </si>
+  <si>
+    <t>adventureworks_jm3</t>
+  </si>
+  <si>
+    <t>adventureworks_jm4</t>
+  </si>
+  <si>
+    <t>adventureworks_js3</t>
   </si>
 </sst>
 </file>
@@ -35453,7 +35502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6A6CF3-2301-3446-B6E5-CC0EA293CB3D}">
   <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
@@ -38699,7 +38748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B91"/>
     </sheetView>
   </sheetViews>
@@ -39983,6 +40032,3266 @@
       </c>
       <c r="D91" s="1">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EC77D5-AFBE-CE4E-BBE8-AEC659EB73B4}">
+  <dimension ref="A1:S55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:S55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L1" t="s">
+        <v>236</v>
+      </c>
+      <c r="M1" t="s">
+        <v>237</v>
+      </c>
+      <c r="N1" t="s">
+        <v>238</v>
+      </c>
+      <c r="O1" t="s">
+        <v>239</v>
+      </c>
+      <c r="P1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>241</v>
+      </c>
+      <c r="R1" t="s">
+        <v>242</v>
+      </c>
+      <c r="S1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>239</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>239</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>-2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>725</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>725</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>-2</v>
+      </c>
+      <c r="I3">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="J3">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>725</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>725</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>-2</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0.5</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>699</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>699</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-2</v>
+      </c>
+      <c r="I5">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.5</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>183</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>183</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>192</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>192</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>-2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>183</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>183</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>-2</v>
+      </c>
+      <c r="I8">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.25</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>183</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>183</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>-2</v>
+      </c>
+      <c r="I9">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.4</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>277</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>277</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>-2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>525</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>525</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>-2</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.4</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0.5</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>513</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>513</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>-2</v>
+      </c>
+      <c r="I12">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="K12">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0.25</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.5</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>513</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>513</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>-2</v>
+      </c>
+      <c r="I13">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="K13">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0.5</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>-2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>-2</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.4</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>-2</v>
+      </c>
+      <c r="I16">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="J16">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="K16">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.222222</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>175</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>175</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>-2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>380</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>380</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>-2</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.5</v>
+      </c>
+      <c r="P18">
+        <v>0.4</v>
+      </c>
+      <c r="Q18">
+        <v>0.4</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>191</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>191</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>-2</v>
+      </c>
+      <c r="I19">
+        <v>0.5</v>
+      </c>
+      <c r="J19">
+        <v>0.5</v>
+      </c>
+      <c r="K19">
+        <v>0.5</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.2</v>
+      </c>
+      <c r="O19">
+        <v>0.5</v>
+      </c>
+      <c r="P19">
+        <v>0.2</v>
+      </c>
+      <c r="Q19">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>175</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>175</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>-2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>-2</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.4</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>201</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>201</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>-2</v>
+      </c>
+      <c r="I22">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="J22">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="K22">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.222222</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>175</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>175</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>-2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>380</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>380</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>-2</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.5</v>
+      </c>
+      <c r="P24">
+        <v>0.4</v>
+      </c>
+      <c r="Q24">
+        <v>0.4</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>191</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>191</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>-2</v>
+      </c>
+      <c r="I25">
+        <v>0.5</v>
+      </c>
+      <c r="J25">
+        <v>0.5</v>
+      </c>
+      <c r="K25">
+        <v>0.5</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.2</v>
+      </c>
+      <c r="O25">
+        <v>0.5</v>
+      </c>
+      <c r="P25">
+        <v>0.2</v>
+      </c>
+      <c r="Q25">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>175</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>175</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>-2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" t="s">
+        <v>270</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>380</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>380</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>-2</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.5</v>
+      </c>
+      <c r="P27">
+        <v>0.4</v>
+      </c>
+      <c r="Q27">
+        <v>0.4</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" t="s">
+        <v>270</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>493</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>493</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>-2</v>
+      </c>
+      <c r="I28">
+        <v>0.5</v>
+      </c>
+      <c r="J28">
+        <v>0.5</v>
+      </c>
+      <c r="K28">
+        <v>0.5</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.5</v>
+      </c>
+      <c r="P28">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="Q28">
+        <v>0.2</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>-2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>13</v>
+      </c>
+      <c r="S29">
+        <v>121421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>152780</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>152780</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>-2</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>152881</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>121316</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>121316</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>-2</v>
+      </c>
+      <c r="I31">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="J31">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="K31">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0.5</v>
+      </c>
+      <c r="O31">
+        <v>0.5</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0.5</v>
+      </c>
+      <c r="R31">
+        <v>5</v>
+      </c>
+      <c r="S31">
+        <v>121417</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" t="s">
+        <v>271</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>152790</v>
+      </c>
+      <c r="D32">
+        <v>1480</v>
+      </c>
+      <c r="E32">
+        <v>152790</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>-2</v>
+      </c>
+      <c r="I32">
+        <v>0.5</v>
+      </c>
+      <c r="J32">
+        <v>0.5</v>
+      </c>
+      <c r="K32">
+        <v>0.5</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="R32">
+        <v>1480</v>
+      </c>
+      <c r="S32">
+        <v>152891</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" t="s">
+        <v>272</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>211</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>211</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>-2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" t="s">
+        <v>272</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>320</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>320</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>-2</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0.5</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.5</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>0.5</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>316</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>316</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>-2</v>
+      </c>
+      <c r="I35">
+        <v>0.4</v>
+      </c>
+      <c r="J35">
+        <v>0.4</v>
+      </c>
+      <c r="K35">
+        <v>0.4</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="P35">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" t="s">
+        <v>273</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>355</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>355</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>-2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>108</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>108</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>-2</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0.5</v>
+      </c>
+      <c r="R37">
+        <v>3</v>
+      </c>
+      <c r="S37">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>105</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>105</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>-2</v>
+      </c>
+      <c r="I38">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="J38">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="K38">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0.5</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>804</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>804</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>-2</v>
+      </c>
+      <c r="I39">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="J39">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="K39">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" t="s">
+        <v>274</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>60398</v>
+      </c>
+      <c r="D40">
+        <v>2251</v>
+      </c>
+      <c r="E40">
+        <v>60398</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>-2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>2251</v>
+      </c>
+      <c r="S40">
+        <v>121417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" t="s">
+        <v>274</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>64723</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>64723</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>-2</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="O41">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="R41">
+        <v>4</v>
+      </c>
+      <c r="S41">
+        <v>64824</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" t="s">
+        <v>274</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>60918</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>60918</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>-2</v>
+      </c>
+      <c r="I42">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="J42">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="K42">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="L42">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0.5</v>
+      </c>
+      <c r="O42">
+        <v>0.5</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0.5</v>
+      </c>
+      <c r="R42">
+        <v>4</v>
+      </c>
+      <c r="S42">
+        <v>61019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" t="s">
+        <v>274</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>92382</v>
+      </c>
+      <c r="D43">
+        <v>861</v>
+      </c>
+      <c r="E43">
+        <v>92382</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>-2</v>
+      </c>
+      <c r="I43">
+        <v>0.5</v>
+      </c>
+      <c r="J43">
+        <v>0.5</v>
+      </c>
+      <c r="K43">
+        <v>0.5</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O43">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="R43">
+        <v>861</v>
+      </c>
+      <c r="S43">
+        <v>92483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" t="s">
+        <v>263</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>239</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>239</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>-2</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" t="s">
+        <v>264</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>183</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>183</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>-2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" t="s">
+        <v>265</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>277</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>277</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>-2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>4</v>
+      </c>
+      <c r="S46">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" t="s">
+        <v>266</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>-2</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" t="s">
+        <v>267</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>175</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>175</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>-2</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" t="s">
+        <v>268</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>175</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>175</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>-2</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="S49">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" t="s">
+        <v>269</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>175</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>175</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>-2</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" t="s">
+        <v>270</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>175</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>175</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>-2</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" t="s">
+        <v>271</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>-2</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>13</v>
+      </c>
+      <c r="S52">
+        <v>121421</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" t="s">
+        <v>272</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>211</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>211</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>-2</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>3</v>
+      </c>
+      <c r="S53">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>355</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>355</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>-2</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>60398</v>
+      </c>
+      <c r="D55">
+        <v>2251</v>
+      </c>
+      <c r="E55">
+        <v>60398</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>-2</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>2251</v>
+      </c>
+      <c r="S55">
+        <v>121417</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_results/Employees_AdventureWorks.xlsx
+++ b/experiment_results/Employees_AdventureWorks.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,8 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yguo/RubymineProjects/altar/experiment_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C803BBD5-C8BC-CD4F-A7A5-A50671CA7C1E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="22780" windowHeight="16480" tabRatio="500" firstSheet="12" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5380" yWindow="800" windowWidth="22780" windowHeight="16480" tabRatio="500" firstSheet="12" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees_Simple" sheetId="1" r:id="rId1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="276">
   <si>
     <t>Nodes</t>
   </si>
@@ -822,15 +823,6 @@
     <t>STD</t>
   </si>
   <si>
-    <t>harmonic_mean</t>
-  </si>
-  <si>
-    <t>jaccard</t>
-  </si>
-  <si>
-    <t>column_cnt</t>
-  </si>
-  <si>
     <t>total_test_cnt</t>
   </si>
   <si>
@@ -868,6 +860,18 @@
   </si>
   <si>
     <t>adventureworks_js3</t>
+  </si>
+  <si>
+    <t>mw_duration</t>
+  </si>
+  <si>
+    <t>adventureworks_js5</t>
+  </si>
+  <si>
+    <t>adventureworks_js2</t>
+  </si>
+  <si>
+    <t>adventureworks_jm5</t>
   </si>
 </sst>
 </file>
@@ -35500,15 +35504,15 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6A6CF3-2301-3446-B6E5-CC0EA293CB3D}">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68:P68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>228</v>
       </c>
@@ -35554,8 +35558,14 @@
       <c r="O1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>243</v>
       </c>
@@ -35566,7 +35576,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -35599,10 +35609,16 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>243</v>
       </c>
@@ -35613,7 +35629,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -35646,10 +35662,16 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -35660,7 +35682,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -35693,10 +35715,16 @@
         <v>0.5</v>
       </c>
       <c r="O4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>244</v>
       </c>
@@ -35707,7 +35735,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -35740,10 +35768,16 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>244</v>
       </c>
@@ -35754,7 +35788,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -35787,10 +35821,16 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="O6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>244</v>
       </c>
@@ -35801,7 +35841,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -35834,10 +35874,16 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="O7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -35848,7 +35894,7 @@
         <v>4081</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>4081</v>
@@ -35881,10 +35927,16 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="O8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>245</v>
       </c>
@@ -35895,7 +35947,7 @@
         <v>140766</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>140766</v>
@@ -35928,10 +35980,16 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>144955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>245</v>
       </c>
@@ -35942,7 +36000,7 @@
         <v>4089</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>4089</v>
@@ -35975,10 +36033,16 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="O10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>245</v>
       </c>
@@ -35989,7 +36053,7 @@
         <v>1370893</v>
       </c>
       <c r="D11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>1370893</v>
@@ -36022,10 +36086,16 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>42</v>
+      </c>
+      <c r="P11">
+        <v>42</v>
+      </c>
+      <c r="Q11">
+        <v>1375082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>246</v>
       </c>
@@ -36036,7 +36106,7 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -36069,10 +36139,16 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>246</v>
       </c>
@@ -36080,22 +36156,22 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -36104,22 +36180,28 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="O13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>246</v>
       </c>
@@ -36165,8 +36247,14 @@
       <c r="O14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>247</v>
       </c>
@@ -36177,7 +36265,7 @@
         <v>169023</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>169023</v>
@@ -36210,10 +36298,16 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="O15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="P15">
+        <v>12</v>
+      </c>
+      <c r="Q15">
+        <v>169123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>247</v>
       </c>
@@ -36259,8 +36353,14 @@
       <c r="O16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>6</v>
+      </c>
+      <c r="Q16">
+        <v>169123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>247</v>
       </c>
@@ -36271,7 +36371,7 @@
         <v>2437391</v>
       </c>
       <c r="D17">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E17">
         <v>2437391</v>
@@ -36304,10 +36404,16 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>71</v>
+      </c>
+      <c r="P17">
+        <v>71</v>
+      </c>
+      <c r="Q17">
+        <v>2606514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>247</v>
       </c>
@@ -36315,13 +36421,13 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1430605</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1430605</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -36351,10 +36457,16 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>50</v>
+      </c>
+      <c r="P18">
+        <v>50</v>
+      </c>
+      <c r="Q18">
+        <v>1599728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>248</v>
       </c>
@@ -36365,7 +36477,7 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -36398,10 +36510,16 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>248</v>
       </c>
@@ -36409,22 +36527,22 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -36433,22 +36551,28 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="O20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>248</v>
       </c>
@@ -36459,7 +36583,7 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>7</v>
@@ -36492,10 +36616,16 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="O21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>249</v>
       </c>
@@ -36506,7 +36636,7 @@
         <v>4685</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>4685</v>
@@ -36539,10 +36669,16 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="O22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>8</v>
+      </c>
+      <c r="P22">
+        <v>8</v>
+      </c>
+      <c r="Q22">
+        <v>4799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>249</v>
       </c>
@@ -36553,7 +36689,7 @@
         <v>87557</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>87557</v>
@@ -36586,10 +36722,16 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>7</v>
+      </c>
+      <c r="P23">
+        <v>7</v>
+      </c>
+      <c r="Q23">
+        <v>92348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>249</v>
       </c>
@@ -36635,8 +36777,14 @@
       <c r="O24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>4791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>249</v>
       </c>
@@ -36647,7 +36795,7 @@
         <v>1787916</v>
       </c>
       <c r="D25">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E25">
         <v>1787916</v>
@@ -36680,10 +36828,16 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>51</v>
+      </c>
+      <c r="P25">
+        <v>51</v>
+      </c>
+      <c r="Q25">
+        <v>1792707</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>250</v>
       </c>
@@ -36694,7 +36848,7 @@
         <v>164281</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>164281</v>
@@ -36727,10 +36881,16 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="O26">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P26">
+        <v>14</v>
+      </c>
+      <c r="Q26">
+        <v>169123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>250</v>
       </c>
@@ -36776,8 +36936,14 @@
       <c r="O27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <v>5</v>
+      </c>
+      <c r="Q27">
+        <v>169123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>250</v>
       </c>
@@ -36788,7 +36954,7 @@
         <v>2437391</v>
       </c>
       <c r="D28">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E28">
         <v>2437391</v>
@@ -36821,10 +36987,16 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>70</v>
+      </c>
+      <c r="P28">
+        <v>70</v>
+      </c>
+      <c r="Q28">
+        <v>2606514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>250</v>
       </c>
@@ -36832,13 +37004,13 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1430605</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1430605</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -36868,10 +37040,16 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>41</v>
+      </c>
+      <c r="P29">
+        <v>41</v>
+      </c>
+      <c r="Q29">
+        <v>1599728</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>251</v>
       </c>
@@ -36917,8 +37095,14 @@
       <c r="O30">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30">
+        <v>12</v>
+      </c>
+      <c r="Q30">
+        <v>169123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>251</v>
       </c>
@@ -36929,7 +37113,7 @@
         <v>169023</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>169023</v>
@@ -36962,10 +37146,16 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>6</v>
+      </c>
+      <c r="P31">
+        <v>6</v>
+      </c>
+      <c r="Q31">
+        <v>169123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>251</v>
       </c>
@@ -36976,7 +37166,7 @@
         <v>116267140</v>
       </c>
       <c r="D32">
-        <v>2629</v>
+        <v>2739</v>
       </c>
       <c r="E32">
         <v>116267140</v>
@@ -37009,10 +37199,16 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>2629</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>2739</v>
+      </c>
+      <c r="P32">
+        <v>2739</v>
+      </c>
+      <c r="Q32">
+        <v>116436263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>251</v>
       </c>
@@ -37020,13 +37216,13 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1430605</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1430605</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -37056,10 +37252,16 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>45</v>
+      </c>
+      <c r="P33">
+        <v>45</v>
+      </c>
+      <c r="Q33">
+        <v>1599728</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>252</v>
       </c>
@@ -37105,8 +37307,14 @@
       <c r="O34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34">
+        <v>7</v>
+      </c>
+      <c r="Q34">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>252</v>
       </c>
@@ -37117,7 +37325,7 @@
         <v>108883</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>108883</v>
@@ -37150,10 +37358,16 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>7</v>
+      </c>
+      <c r="P35">
+        <v>7</v>
+      </c>
+      <c r="Q35">
+        <v>113992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>252</v>
       </c>
@@ -37164,7 +37378,7 @@
         <v>5009</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>5009</v>
@@ -37197,10 +37411,16 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="O36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>3</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+      <c r="Q36">
+        <v>5109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>252</v>
       </c>
@@ -37211,7 +37431,7 @@
         <v>2006608</v>
       </c>
       <c r="D37">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E37">
         <v>2006608</v>
@@ -37244,10 +37464,16 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>56</v>
+      </c>
+      <c r="P37">
+        <v>56</v>
+      </c>
+      <c r="Q37">
+        <v>2011717</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>253</v>
       </c>
@@ -37258,7 +37484,7 @@
         <v>4685</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>4685</v>
@@ -37291,10 +37517,16 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="O38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>10</v>
+      </c>
+      <c r="P38">
+        <v>10</v>
+      </c>
+      <c r="Q38">
+        <v>4799</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>253</v>
       </c>
@@ -37305,7 +37537,7 @@
         <v>87557</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <v>87557</v>
@@ -37338,10 +37570,16 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>6</v>
+      </c>
+      <c r="P39">
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <v>92348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>253</v>
       </c>
@@ -37387,8 +37625,14 @@
       <c r="O40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="P40">
+        <v>2</v>
+      </c>
+      <c r="Q40">
+        <v>4791</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>253</v>
       </c>
@@ -37399,7 +37643,7 @@
         <v>1787916</v>
       </c>
       <c r="D41">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E41">
         <v>1787916</v>
@@ -37432,10 +37676,16 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>50</v>
+      </c>
+      <c r="P41">
+        <v>50</v>
+      </c>
+      <c r="Q41">
+        <v>1792707</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>254</v>
       </c>
@@ -37446,7 +37696,7 @@
         <v>122129</v>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E42">
         <v>122129</v>
@@ -37479,10 +37729,16 @@
         <v>0.4</v>
       </c>
       <c r="O42">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="P42">
+        <v>12</v>
+      </c>
+      <c r="Q42">
+        <v>122237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>254</v>
       </c>
@@ -37490,13 +37746,13 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1835884</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1835884</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -37526,10 +37782,16 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>47</v>
+      </c>
+      <c r="P43">
+        <v>47</v>
+      </c>
+      <c r="Q43">
+        <v>1958121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>255</v>
       </c>
@@ -37540,7 +37802,7 @@
         <v>6</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E44">
         <v>6</v>
@@ -37573,10 +37835,16 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>6</v>
+      </c>
+      <c r="P44">
+        <v>6</v>
+      </c>
+      <c r="Q44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>255</v>
       </c>
@@ -37587,7 +37855,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -37620,10 +37888,16 @@
         <v>1</v>
       </c>
       <c r="O45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+      <c r="Q45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>255</v>
       </c>
@@ -37669,8 +37943,14 @@
       <c r="O46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="P46">
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -37716,8 +37996,14 @@
       <c r="O47">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="P47">
+        <v>10</v>
+      </c>
+      <c r="Q47">
+        <v>122237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>256</v>
       </c>
@@ -37725,13 +38011,13 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1835884</v>
       </c>
       <c r="D48">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1835884</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -37761,10 +38047,16 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>54</v>
+      </c>
+      <c r="P48">
+        <v>54</v>
+      </c>
+      <c r="Q48">
+        <v>1958121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>257</v>
       </c>
@@ -37775,7 +38067,7 @@
         <v>5251</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E49">
         <v>5251</v>
@@ -37808,10 +38100,16 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="O49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>6</v>
+      </c>
+      <c r="P49">
+        <v>6</v>
+      </c>
+      <c r="Q49">
+        <v>5362</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>257</v>
       </c>
@@ -37857,8 +38155,14 @@
       <c r="O50">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="P50">
+        <v>9</v>
+      </c>
+      <c r="Q50">
+        <v>186924</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>257</v>
       </c>
@@ -37869,7 +38173,7 @@
         <v>5257</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>5257</v>
@@ -37902,10 +38206,16 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="O51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>2</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <v>5357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>257</v>
       </c>
@@ -37916,7 +38226,7 @@
         <v>1761851</v>
       </c>
       <c r="D52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E52">
         <v>1761851</v>
@@ -37949,10 +38259,16 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>50</v>
+      </c>
+      <c r="P52">
+        <v>50</v>
+      </c>
+      <c r="Q52">
+        <v>1767208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
         <v>243</v>
       </c>
@@ -37960,46 +38276,52 @@
         <v>4</v>
       </c>
       <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <v>3</v>
+      </c>
+      <c r="Q53">
         <v>63</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>244</v>
       </c>
@@ -38007,46 +38329,52 @@
         <v>4</v>
       </c>
       <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>3</v>
+      </c>
+      <c r="P54">
+        <v>3</v>
+      </c>
+      <c r="Q54">
         <v>15</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
         <v>245</v>
       </c>
@@ -38054,46 +38382,52 @@
         <v>4</v>
       </c>
       <c r="C55">
+        <v>4081</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>4081</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>6</v>
+      </c>
+      <c r="P55">
+        <v>6</v>
+      </c>
+      <c r="Q55">
         <v>4193</v>
       </c>
-      <c r="D55">
-        <v>7</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>246</v>
       </c>
@@ -38101,46 +38435,52 @@
         <v>4</v>
       </c>
       <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>2</v>
+      </c>
+      <c r="P56">
+        <v>2</v>
+      </c>
+      <c r="Q56">
         <v>63</v>
       </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
         <v>247</v>
       </c>
@@ -38148,46 +38488,52 @@
         <v>4</v>
       </c>
       <c r="C57">
+        <v>169023</v>
+      </c>
+      <c r="D57">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>169023</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>12</v>
+      </c>
+      <c r="P57">
+        <v>12</v>
+      </c>
+      <c r="Q57">
         <v>169123</v>
       </c>
-      <c r="D57">
-        <v>10</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
         <v>248</v>
       </c>
@@ -38195,46 +38541,52 @@
         <v>4</v>
       </c>
       <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>4</v>
+      </c>
+      <c r="P58">
+        <v>4</v>
+      </c>
+      <c r="Q58">
         <v>63</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
         <v>249</v>
       </c>
@@ -38242,46 +38594,52 @@
         <v>4</v>
       </c>
       <c r="C59">
+        <v>4685</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>4685</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>8</v>
+      </c>
+      <c r="P59">
+        <v>8</v>
+      </c>
+      <c r="Q59">
         <v>4799</v>
       </c>
-      <c r="D59">
-        <v>6</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
         <v>250</v>
       </c>
@@ -38289,46 +38647,52 @@
         <v>4</v>
       </c>
       <c r="C60">
+        <v>164281</v>
+      </c>
+      <c r="D60">
+        <v>14</v>
+      </c>
+      <c r="E60">
+        <v>164281</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>14</v>
+      </c>
+      <c r="P60">
+        <v>14</v>
+      </c>
+      <c r="Q60">
         <v>169123</v>
       </c>
-      <c r="D60">
-        <v>17</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
         <v>251</v>
       </c>
@@ -38336,13 +38700,13 @@
         <v>4</v>
       </c>
       <c r="C61">
-        <v>169123</v>
+        <v>169013</v>
       </c>
       <c r="D61">
         <v>12</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>169013</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -38374,8 +38738,14 @@
       <c r="O61">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:15">
+      <c r="P61">
+        <v>12</v>
+      </c>
+      <c r="Q61">
+        <v>169123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
         <v>252</v>
       </c>
@@ -38383,13 +38753,13 @@
         <v>4</v>
       </c>
       <c r="C62">
-        <v>5117</v>
+        <v>5003</v>
       </c>
       <c r="D62">
         <v>7</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>5003</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -38421,8 +38791,14 @@
       <c r="O62">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:15">
+      <c r="P62">
+        <v>7</v>
+      </c>
+      <c r="Q62">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
         <v>253</v>
       </c>
@@ -38430,46 +38806,52 @@
         <v>4</v>
       </c>
       <c r="C63">
+        <v>4685</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>4685</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>10</v>
+      </c>
+      <c r="P63">
+        <v>10</v>
+      </c>
+      <c r="Q63">
         <v>4799</v>
       </c>
-      <c r="D63">
-        <v>8</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
         <v>254</v>
       </c>
@@ -38477,46 +38859,52 @@
         <v>4</v>
       </c>
       <c r="C64">
+        <v>122129</v>
+      </c>
+      <c r="D64">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <v>122129</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>12</v>
+      </c>
+      <c r="P64">
+        <v>12</v>
+      </c>
+      <c r="Q64">
         <v>122237</v>
       </c>
-      <c r="D64">
-        <v>14</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
         <v>255</v>
       </c>
@@ -38524,46 +38912,52 @@
         <v>4</v>
       </c>
       <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>6</v>
+      </c>
+      <c r="P65">
+        <v>6</v>
+      </c>
+      <c r="Q65">
         <v>15</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
         <v>256</v>
       </c>
@@ -38571,13 +38965,13 @@
         <v>4</v>
       </c>
       <c r="C66">
-        <v>122237</v>
+        <v>122136</v>
       </c>
       <c r="D66">
         <v>10</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>122136</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -38609,8 +39003,14 @@
       <c r="O66">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="P66">
+        <v>10</v>
+      </c>
+      <c r="Q66">
+        <v>122237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
         <v>257</v>
       </c>
@@ -38618,60 +39018,66 @@
         <v>4</v>
       </c>
       <c r="C67">
+        <v>5251</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>5251</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>6</v>
+      </c>
+      <c r="P67">
+        <v>6</v>
+      </c>
+      <c r="Q67">
         <v>5362</v>
       </c>
-      <c r="D67">
-        <v>8</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
         <v>183</v>
       </c>
       <c r="F68">
         <f xml:space="preserve"> AVERAGE(F2:F67)</f>
-        <v>0.19924246969696971</v>
+        <v>0.21439398484848488</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:N68" si="0" xml:space="preserve"> AVERAGE(G2:G67)</f>
-        <v>0.22449496969696969</v>
+        <f t="shared" ref="G68:P68" si="0" xml:space="preserve"> AVERAGE(G2:G67)</f>
+        <v>0.23964648484848486</v>
       </c>
       <c r="H68">
         <f t="shared" si="0"/>
-        <v>0.22449496969696969</v>
+        <v>0.23964648484848486</v>
       </c>
       <c r="I68">
         <f t="shared" si="0"/>
@@ -38683,36 +39089,44 @@
       </c>
       <c r="K68">
         <f t="shared" si="0"/>
-        <v>9.141412121212121E-2</v>
+        <v>0.12171715151515151</v>
       </c>
       <c r="L68">
         <f t="shared" si="0"/>
-        <v>0.19949498484848488</v>
+        <v>0.21464650000000005</v>
       </c>
       <c r="M68">
         <f t="shared" si="0"/>
-        <v>0.10858584848484849</v>
+        <v>0.12878787878787878</v>
       </c>
       <c r="N68">
         <f t="shared" si="0"/>
-        <v>0.18484843939393938</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>0.20505046969696969</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="0"/>
+        <v>55.878787878787875</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="0"/>
+        <v>55.878787878787875</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
         <v>258</v>
       </c>
       <c r="F69">
         <f>STDEV(F2:F67)</f>
-        <v>0.28658671613732556</v>
+        <v>0.28889551017010623</v>
       </c>
       <c r="G69">
         <f t="shared" ref="G69:N69" si="1">STDEV(G2:G67)</f>
-        <v>0.33764167801069228</v>
+        <v>0.33845763791048644</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>0.33764167801069228</v>
+        <v>0.33845763791048644</v>
       </c>
       <c r="I69">
         <f t="shared" si="1"/>
@@ -38724,19 +39138,19 @@
       </c>
       <c r="K69">
         <f t="shared" si="1"/>
-        <v>0.20299555093923496</v>
+        <v>0.25577048140015884</v>
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>0.277688499483559</v>
+        <v>0.28005678527493455</v>
       </c>
       <c r="M69">
         <f t="shared" si="1"/>
-        <v>0.29597357650668971</v>
+        <v>0.31049376522562427</v>
       </c>
       <c r="N69">
         <f t="shared" si="1"/>
-        <v>0.28800413798507657</v>
+        <v>0.29769729677588319</v>
       </c>
     </row>
   </sheetData>
@@ -40041,10 +40455,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EC77D5-AFBE-CE4E-BBE8-AEC659EB73B4}">
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S55"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -40066,51 +40480,51 @@
         <v>232</v>
       </c>
       <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M1" t="s">
+        <v>240</v>
+      </c>
+      <c r="N1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P1" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q1" t="s">
         <v>259</v>
-      </c>
-      <c r="G1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K1" t="s">
-        <v>235</v>
-      </c>
-      <c r="L1" t="s">
-        <v>236</v>
-      </c>
-      <c r="M1" t="s">
-        <v>237</v>
-      </c>
-      <c r="N1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O1" t="s">
-        <v>239</v>
-      </c>
-      <c r="P1" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>241</v>
       </c>
       <c r="R1" t="s">
         <v>242</v>
       </c>
       <c r="S1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -40119,7 +40533,7 @@
         <v>239</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>239</v>
@@ -40131,7 +40545,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -40152,13 +40566,13 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>799</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -40169,7 +40583,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -40184,40 +40598,40 @@
         <v>725</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="H3">
-        <v>-2</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>0.66666700000000001</v>
       </c>
-      <c r="J3">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="K3">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.66666700000000001</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>1064</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -40228,7 +40642,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -40243,40 +40657,40 @@
         <v>725</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H4">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.5</v>
       </c>
-      <c r="J4">
-        <v>0.5</v>
-      </c>
-      <c r="K4">
-        <v>0.5</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>1064</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -40287,7 +40701,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -40302,40 +40716,40 @@
         <v>699</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="H5">
-        <v>-2</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>0.33333299999999999</v>
       </c>
-      <c r="J5">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="K5">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O5">
-        <v>0.33333299999999999</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>799</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -40346,7 +40760,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -40367,7 +40781,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -40388,13 +40802,13 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="R6">
         <v>2</v>
@@ -40405,7 +40819,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -40420,40 +40834,40 @@
         <v>192</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="O7">
-        <v>0.66666700000000001</v>
+        <v>2</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7">
-        <v>0.33333299999999999</v>
+        <v>292</v>
       </c>
       <c r="R7">
         <v>2</v>
@@ -40464,7 +40878,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -40479,40 +40893,40 @@
         <v>183</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="H8">
-        <v>-2</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>0.33333299999999999</v>
       </c>
-      <c r="J8">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="K8">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O8">
-        <v>0.33333299999999999</v>
+        <v>2</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>283</v>
       </c>
       <c r="R8">
         <v>2</v>
@@ -40523,7 +40937,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -40538,40 +40952,40 @@
         <v>183</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="H9">
-        <v>-2</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>0.66666700000000001</v>
       </c>
-      <c r="J9">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="K9">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O9">
-        <v>0.66666700000000001</v>
+        <v>2</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q9">
-        <v>0.4</v>
+        <v>283</v>
       </c>
       <c r="R9">
         <v>2</v>
@@ -40582,7 +40996,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -40591,7 +41005,7 @@
         <v>277</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>277</v>
@@ -40603,7 +41017,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -40624,13 +41038,13 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="R10">
         <v>4</v>
@@ -40641,7 +41055,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -40656,40 +41070,40 @@
         <v>525</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H11">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="O11">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q11">
-        <v>0.66666700000000001</v>
+        <v>625</v>
       </c>
       <c r="R11">
         <v>2</v>
@@ -40700,7 +41114,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -40715,40 +41129,40 @@
         <v>513</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="H12">
-        <v>-2</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="I12">
-        <v>0.16666700000000001</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.16666700000000001</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.16666700000000001</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O12">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q12">
-        <v>0.5</v>
+        <v>613</v>
       </c>
       <c r="R12">
         <v>2</v>
@@ -40759,7 +41173,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -40768,46 +41182,46 @@
         <v>513</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>513</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="H13">
-        <v>-2</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="I13">
-        <v>0.33333299999999999</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.33333299999999999</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.33333299999999999</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="O13">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q13">
-        <v>0.66666700000000001</v>
+        <v>613</v>
       </c>
       <c r="R13">
         <v>3</v>
@@ -40818,7 +41232,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -40839,7 +41253,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -40860,13 +41274,13 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="R14">
         <v>2</v>
@@ -40877,7 +41291,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -40892,40 +41306,40 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0.4</v>
+        <v>74</v>
       </c>
       <c r="R15">
         <v>1</v>
@@ -40936,7 +41350,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -40945,46 +41359,46 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="H16">
-        <v>-2</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="I16">
-        <v>0.16666700000000001</v>
+        <v>0</v>
       </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>0.33333299999999999</v>
       </c>
-      <c r="K16">
-        <v>0.16666700000000001</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.222222</v>
       </c>
       <c r="O16">
-        <v>0.33333299999999999</v>
+        <v>2</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q16">
-        <v>0.222222</v>
+        <v>78</v>
       </c>
       <c r="R16">
         <v>1</v>
@@ -40995,7 +41409,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -41004,7 +41418,7 @@
         <v>175</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>175</v>
@@ -41016,7 +41430,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -41037,13 +41451,13 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="R17">
         <v>1</v>
@@ -41054,7 +41468,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -41063,46 +41477,46 @@
         <v>380</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>380</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N18">
-        <v>0.66666700000000001</v>
+        <v>0.4</v>
       </c>
       <c r="O18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>0.4</v>
+        <v>480</v>
       </c>
       <c r="R18">
         <v>2</v>
@@ -41113,7 +41527,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -41122,46 +41536,46 @@
         <v>191</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>191</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H19">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0.2</v>
+      </c>
+      <c r="L19">
         <v>0.5</v>
       </c>
-      <c r="J19">
-        <v>0.5</v>
-      </c>
-      <c r="K19">
-        <v>0.5</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N19">
         <v>0.2</v>
       </c>
       <c r="O19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>0.33333299999999999</v>
+        <v>291</v>
       </c>
       <c r="R19">
         <v>2</v>
@@ -41172,7 +41586,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -41181,7 +41595,7 @@
         <v>175</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>175</v>
@@ -41193,7 +41607,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -41214,13 +41628,13 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="R20">
         <v>2</v>
@@ -41231,7 +41645,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -41240,46 +41654,46 @@
         <v>12</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>12</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q21">
-        <v>0.4</v>
+        <v>14</v>
       </c>
       <c r="R21">
         <v>1</v>
@@ -41290,7 +41704,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -41299,46 +41713,46 @@
         <v>201</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>201</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="H22">
-        <v>-2</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="I22">
-        <v>0.16666700000000001</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.16666700000000001</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.16666700000000001</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.222222</v>
       </c>
       <c r="O22">
-        <v>0.33333299999999999</v>
+        <v>2</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q22">
-        <v>0.222222</v>
+        <v>203</v>
       </c>
       <c r="R22">
         <v>1</v>
@@ -41349,7 +41763,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -41370,7 +41784,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -41391,13 +41805,13 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="R23">
         <v>2</v>
@@ -41408,7 +41822,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -41417,46 +41831,46 @@
         <v>380</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>380</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N24">
-        <v>0.66666700000000001</v>
+        <v>0.4</v>
       </c>
       <c r="O24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>0.4</v>
+        <v>480</v>
       </c>
       <c r="R24">
         <v>2</v>
@@ -41467,7 +41881,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -41482,40 +41896,40 @@
         <v>191</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H25">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0.2</v>
+      </c>
+      <c r="L25">
         <v>0.5</v>
       </c>
-      <c r="J25">
-        <v>0.5</v>
-      </c>
-      <c r="K25">
-        <v>0.5</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N25">
         <v>0.2</v>
       </c>
       <c r="O25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P25">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>0.33333299999999999</v>
+        <v>291</v>
       </c>
       <c r="R25">
         <v>1</v>
@@ -41526,7 +41940,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -41535,7 +41949,7 @@
         <v>175</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>175</v>
@@ -41547,7 +41961,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -41568,13 +41982,13 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="R26">
         <v>2</v>
@@ -41585,7 +41999,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -41600,40 +42014,40 @@
         <v>380</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N27">
-        <v>0.66666700000000001</v>
+        <v>0.4</v>
       </c>
       <c r="O27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P27">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>0.4</v>
+        <v>480</v>
       </c>
       <c r="R27">
         <v>1</v>
@@ -41644,7 +42058,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -41653,46 +42067,46 @@
         <v>493</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>493</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H28">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="I28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0.5</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="N28">
-        <v>0.33333299999999999</v>
+        <v>0.2</v>
       </c>
       <c r="O28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P28">
-        <v>0.33333299999999999</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>0.2</v>
+        <v>593</v>
       </c>
       <c r="R28">
         <v>2</v>
@@ -41703,28 +42117,28 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>152786</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>152786</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -41733,25 +42147,25 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>152891</v>
       </c>
       <c r="R29">
         <v>13</v>
@@ -41762,19 +42176,19 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>152780</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>152780</v>
+        <v>4</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -41783,34 +42197,34 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0.66666700000000001</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>0.66666700000000001</v>
+        <v>6</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q30">
-        <v>0.66666700000000001</v>
+        <v>121421</v>
       </c>
       <c r="R30">
         <v>7</v>
@@ -41821,55 +42235,55 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31">
-        <v>121316</v>
+        <v>121327</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31">
-        <v>121316</v>
+        <v>121327</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H31">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
         <v>0.66666700000000001</v>
       </c>
-      <c r="J31">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="K31">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
       <c r="N31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>121432</v>
       </c>
       <c r="R31">
         <v>5</v>
@@ -41880,55 +42294,55 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>152790</v>
+        <v>152784</v>
       </c>
       <c r="D32">
-        <v>1480</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>152790</v>
+        <v>152784</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H32">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="I32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="L32">
-        <v>0.5</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0.33333299999999999</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>0.33333299999999999</v>
+        <v>5</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q32">
-        <v>0.33333299999999999</v>
+        <v>152885</v>
       </c>
       <c r="R32">
         <v>1480</v>
@@ -41939,19 +42353,19 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>211</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>211</v>
+        <v>4</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -41960,7 +42374,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -41981,13 +42395,13 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>121421</v>
       </c>
       <c r="R33">
         <v>3</v>
@@ -41998,55 +42412,55 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>320</v>
+        <v>152780</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>320</v>
+        <v>152780</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="L34">
-        <v>0.5</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>152881</v>
       </c>
       <c r="R34">
         <v>1</v>
@@ -42057,37 +42471,37 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35">
-        <v>316</v>
+        <v>121316</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>316</v>
+        <v>121316</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="H35">
-        <v>-2</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="I35">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L35">
         <v>0.5</v>
@@ -42096,16 +42510,16 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O35">
-        <v>0.66666700000000001</v>
+        <v>4</v>
       </c>
       <c r="P35">
-        <v>0.66666700000000001</v>
+        <v>4</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>121417</v>
       </c>
       <c r="R35">
         <v>2</v>
@@ -42116,28 +42530,28 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>355</v>
+        <v>152790</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>355</v>
+        <v>152790</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H36">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -42146,25 +42560,25 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>152891</v>
       </c>
       <c r="R36">
         <v>1</v>
@@ -42175,19 +42589,19 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -42196,16 +42610,16 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -42217,13 +42631,13 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q37">
-        <v>0.5</v>
+        <v>416</v>
       </c>
       <c r="R37">
         <v>3</v>
@@ -42234,55 +42648,55 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>105</v>
+        <v>320</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>105</v>
+        <v>320</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H38">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0.66666700000000001</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0.66666700000000001</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>0.66666700000000001</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O38">
-        <v>0.66666700000000001</v>
+        <v>1</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>0.5</v>
+        <v>420</v>
       </c>
       <c r="R38">
         <v>2</v>
@@ -42293,55 +42707,55 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>804</v>
+        <v>316</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39">
-        <v>804</v>
+        <v>316</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H39">
-        <v>-2</v>
+        <v>0.4</v>
       </c>
       <c r="I39">
-        <v>0.33333299999999999</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0.16666700000000001</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>0.33333299999999999</v>
+        <v>1</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.33333299999999999</v>
+        <v>2</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q39">
-        <v>0.33333299999999999</v>
+        <v>416</v>
       </c>
       <c r="R39">
         <v>2</v>
@@ -42352,19 +42766,19 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>60398</v>
+        <v>355</v>
       </c>
       <c r="D40">
-        <v>2251</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>60398</v>
+        <v>355</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -42373,7 +42787,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -42394,13 +42808,13 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="R40">
         <v>2251</v>
@@ -42411,55 +42825,55 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>64723</v>
+        <v>108</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>64723</v>
+        <v>108</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0.66666700000000001</v>
+        <v>0.5</v>
       </c>
       <c r="O41">
-        <v>0.66666700000000001</v>
+        <v>1</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>0.66666700000000001</v>
+        <v>208</v>
       </c>
       <c r="R41">
         <v>4</v>
@@ -42470,37 +42884,37 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42">
-        <v>60918</v>
+        <v>105</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>60918</v>
+        <v>105</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="H42">
-        <v>-2</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="I42">
-        <v>0.66666700000000001</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0.66666700000000001</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>0.66666700000000001</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>0.66666700000000001</v>
@@ -42512,13 +42926,13 @@
         <v>0.5</v>
       </c>
       <c r="O42">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>205</v>
       </c>
       <c r="R42">
         <v>4</v>
@@ -42529,40 +42943,40 @@
     </row>
     <row r="43" spans="1:19">
       <c r="A43" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>92382</v>
+        <v>804</v>
       </c>
       <c r="D43">
-        <v>861</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>92382</v>
+        <v>804</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="H43">
-        <v>-2</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="I43">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -42571,13 +42985,13 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="O43">
-        <v>0.33333299999999999</v>
+        <v>1</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>0.33333299999999999</v>
+        <v>904</v>
       </c>
       <c r="R43">
         <v>861</v>
@@ -42588,19 +43002,19 @@
     </row>
     <row r="44" spans="1:19">
       <c r="A44" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>239</v>
+        <v>60398</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E44">
-        <v>239</v>
+        <v>60398</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -42609,7 +43023,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -42630,13 +43044,13 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>121417</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -42647,28 +43061,28 @@
     </row>
     <row r="45" spans="1:19">
       <c r="A45" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>183</v>
+        <v>64723</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45">
-        <v>183</v>
+        <v>64723</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -42677,25 +43091,25 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>64824</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -42706,28 +43120,28 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>277</v>
+        <v>60918</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>277</v>
+        <v>60918</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="H46">
-        <v>-2</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -42736,25 +43150,25 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>61019</v>
       </c>
       <c r="R46">
         <v>4</v>
@@ -42765,28 +43179,28 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>92382</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>92382</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H47">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -42795,25 +43209,25 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>92483</v>
       </c>
       <c r="R47">
         <v>2</v>
@@ -42824,19 +43238,19 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>175</v>
+        <v>60398</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>175</v>
+        <v>60398</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -42845,7 +43259,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -42866,13 +43280,13 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>121417</v>
       </c>
       <c r="R48">
         <v>1</v>
@@ -42883,28 +43297,28 @@
     </row>
     <row r="49" spans="1:19">
       <c r="A49" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>152780</v>
+      </c>
+      <c r="D49">
         <v>4</v>
       </c>
-      <c r="C49">
-        <v>175</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
       <c r="E49">
-        <v>175</v>
+        <v>152780</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="H49">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -42913,25 +43327,25 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>152881</v>
       </c>
       <c r="R49">
         <v>2</v>
@@ -42942,28 +43356,28 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>121316</v>
+      </c>
+      <c r="D50">
         <v>4</v>
       </c>
-      <c r="C50">
-        <v>175</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
       <c r="E50">
-        <v>175</v>
+        <v>121316</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="H50">
-        <v>-2</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -42972,25 +43386,25 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>121417</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -43001,28 +43415,28 @@
     </row>
     <row r="51" spans="1:19">
       <c r="A51" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>125121</v>
+      </c>
+      <c r="D51">
         <v>4</v>
       </c>
-      <c r="C51">
-        <v>175</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
       <c r="E51">
-        <v>175</v>
+        <v>125121</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="H51">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -43031,10 +43445,10 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -43043,13 +43457,13 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>125222</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -43060,19 +43474,19 @@
     </row>
     <row r="52" spans="1:19">
       <c r="A52" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="D52">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -43081,7 +43495,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -43102,13 +43516,13 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="R52">
         <v>13</v>
@@ -43119,28 +43533,28 @@
     </row>
     <row r="53" spans="1:19">
       <c r="A53" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -43152,22 +43566,22 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="R53">
         <v>3</v>
@@ -43178,28 +43592,28 @@
     </row>
     <row r="54" spans="1:19">
       <c r="A54" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>355</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>355</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="H54">
-        <v>-2</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -43211,22 +43625,22 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="R54">
         <v>1</v>
@@ -43237,28 +43651,28 @@
     </row>
     <row r="55" spans="1:19">
       <c r="A55" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>60398</v>
+        <v>107</v>
       </c>
       <c r="D55">
-        <v>2251</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>60398</v>
+        <v>107</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H55">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -43270,28 +43684,921 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="R55">
         <v>2251</v>
       </c>
       <c r="S55">
         <v>121417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" t="s">
+        <v>260</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>239</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>239</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" t="s">
+        <v>261</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>183</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>183</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <v>2</v>
+      </c>
+      <c r="Q57">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>277</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>277</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <v>2</v>
+      </c>
+      <c r="Q58">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>2</v>
+      </c>
+      <c r="P59">
+        <v>2</v>
+      </c>
+      <c r="Q59">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" t="s">
+        <v>264</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>175</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>175</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>2</v>
+      </c>
+      <c r="P60">
+        <v>2</v>
+      </c>
+      <c r="Q60">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" t="s">
+        <v>265</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>175</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>175</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" t="s">
+        <v>266</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>175</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>175</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>2</v>
+      </c>
+      <c r="P62">
+        <v>2</v>
+      </c>
+      <c r="Q62">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" t="s">
+        <v>267</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>175</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>175</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" t="s">
+        <v>273</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>152786</v>
+      </c>
+      <c r="D64">
+        <v>7</v>
+      </c>
+      <c r="E64">
+        <v>152786</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>7</v>
+      </c>
+      <c r="P64">
+        <v>7</v>
+      </c>
+      <c r="Q64">
+        <v>152891</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" t="s">
+        <v>268</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>6</v>
+      </c>
+      <c r="P65">
+        <v>6</v>
+      </c>
+      <c r="Q65">
+        <v>121421</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" t="s">
+        <v>269</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>211</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>211</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>2</v>
+      </c>
+      <c r="P66">
+        <v>2</v>
+      </c>
+      <c r="Q66">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" t="s">
+        <v>270</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>355</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>355</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>2</v>
+      </c>
+      <c r="P67">
+        <v>2</v>
+      </c>
+      <c r="Q67">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" t="s">
+        <v>271</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>60398</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>60398</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>6</v>
+      </c>
+      <c r="P68">
+        <v>6</v>
+      </c>
+      <c r="Q68">
+        <v>121417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" t="s">
+        <v>274</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>60398</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+      <c r="E69">
+        <v>60398</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>7</v>
+      </c>
+      <c r="P69">
+        <v>7</v>
+      </c>
+      <c r="Q69">
+        <v>121417</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>103</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>103</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>2</v>
+      </c>
+      <c r="P70">
+        <v>2</v>
+      </c>
+      <c r="Q70">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" t="s">
+        <v>183</v>
+      </c>
+      <c r="F71">
+        <f>AVERAGE(F2:F70)</f>
+        <v>0.372946884057971</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ref="G71:P71" si="0">AVERAGE(G2:G70)</f>
+        <v>0.3521739420289855</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="0"/>
+        <v>0.37536234782608696</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="0"/>
+        <v>0.18695652173913044</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="0"/>
+        <v>0.31763285507246375</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="0"/>
+        <v>7.1497594202898557E-2</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="0"/>
+        <v>0.26851852173913043</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="0"/>
+        <v>2.5652173913043477</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="0"/>
+        <v>2.5652173913043477</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" t="s">
+        <v>258</v>
+      </c>
+      <c r="F72">
+        <f>STDEV(F2:F70)</f>
+        <v>0.39412664485701931</v>
+      </c>
+      <c r="G72">
+        <f t="shared" ref="G72:P72" si="1">STDEV(G2:G70)</f>
+        <v>0.37291813733776374</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="1"/>
+        <v>0.394390928130394</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="1"/>
+        <v>0.32404801706367575</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="1"/>
+        <v>0.32188537821095276</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="1"/>
+        <v>0.19747390159493744</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="1"/>
+        <v>0.30887191719572848</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="1"/>
+        <v>1.8025982951869064</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="1"/>
+        <v>1.8025982951869064</v>
       </c>
     </row>
   </sheetData>
